--- a/target/test-classes/TestData/costco.xlsx
+++ b/target/test-classes/TestData/costco.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>Email</t>
   </si>
@@ -24,9 +24,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Location</t>
-  </si>
-  <si>
     <t>Project Name</t>
   </si>
   <si>
@@ -64,6 +61,27 @@
   </si>
   <si>
     <t>costco</t>
+  </si>
+  <si>
+    <t>reenter</t>
+  </si>
+  <si>
+    <t>membership</t>
+  </si>
+  <si>
+    <t>ddd</t>
+  </si>
+  <si>
+    <t>yy</t>
+  </si>
+  <si>
+    <t>nn</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>Adress</t>
   </si>
 </sst>
 </file>
@@ -408,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -419,109 +437,127 @@
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2">
+        <v>76543</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>11</v>
       </c>
       <c r="B3">
         <v>775588</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3">
+        <v>76543</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>12</v>
       </c>
       <c r="B4">
         <v>98765434</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4">
+        <v>76543</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>13</v>
       </c>
       <c r="B5">
         <v>23456789</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
+      <c r="C5" t="s">
+        <v>12</v>
       </c>
       <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="D12" s="1"/>
+      <c r="F5">
+        <v>76543</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
